--- a/Docs/CTT Package Installation Guide.xlsx
+++ b/Docs/CTT Package Installation Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Contact_Tracer\GSA-CTT\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Contact_Tracer\GSA-CTT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A74901-622F-460E-B46C-273889CA43B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328327E2-2BC1-4BB4-8904-6C6B41A8827E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="1" activeTab="1" xr2:uid="{103CFAB5-460B-4A25-9CC4-DC8B7F021E37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" firstSheet="1" activeTab="1" xr2:uid="{103CFAB5-460B-4A25-9CC4-DC8B7F021E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre Deployment Steps OLD" sheetId="13" state="hidden" r:id="rId1"/>
@@ -380,25 +380,6 @@
   </si>
   <si>
     <t>Script 2: Contact Tracer Call Script</t>
-  </si>
-  <si>
-    <t>Prerequisites for package installation, verify available or enabled on the Sandbox_x000D_
-_x000D_
-- Appexchange Heath Cloud Install [Please review 1A. Pre Deployment Addition tab, step 1]_x000D_
-- Service Cloud licenses assigned to org_x000D_
-- (Don't need to install)  Communities enabled _x000D_
-Person Accounts enabled [Please review 1A. Pre Deployment Addition tab, step 3]_x000D_
-- Contacts to multiple Accounts enabled _x000D_
-- (Don't need to install)  Knowledge enabled [Ensure you have a Knowledge attribute set to TRUE on your user record]_x000D_
-- Salesforce Content enabled_x000D_
-- Omnichannel enabled [Ensure you have a service cloud attribute set to TRUE on your user record]_x000D_
-- Entitlements enabled [Ensure you have a service cloud attribute set to TRUE on your user record]_x000D_
-- Email to Case enabled_x000D_
-- Enhanced Notes enabled _x000D_
-- Enable Middle/Local Name [Setup -&gt; User Interface -&gt; User Interface -&gt; Enable Middle Names, Enable Local Names]_x000D_
-_x000D_
-***NOTE FOR TA/SA***_x000D_
-If you are starting from a fresh/greenfield Salesfore instance. It is recommended that you perform this step [STEP 1] in Production so that future Sandboxes would include the changes. PLEASE USE YOUR OWN DISCRETION ON THIS STEP</t>
   </si>
   <si>
     <t xml:space="preserve">Edit Case object, Status (standard field) picklist: replace the API Name_x000D_
@@ -1827,6 +1808,24 @@
   </si>
   <si>
     <t>Activate Flows - Guided Script - Contact Outreach, Guided Script - Positive Outreach, Location Outreach Flow</t>
+  </si>
+  <si>
+    <t>Prerequisites for package installation, verify available or enabled on the Sandbox
+- Appexchange Heath Cloud Install [Please review 1A. Pre Deployment Addition tab, step 1]
+- Service Cloud licenses assigned to org
+- (Don't need to install)  Communities enabled 
+Person Accounts enabled [Please review 1A. Pre Deployment Addition tab, step 3]
+- Contacts to multiple Accounts enabled 
+- (Don't need to install)  Knowledge enabled [Ensure you have a Knowledge attribute set to TRUE on your user record]
+- Salesforce Content enabled
+- Omnichannel enabled [Ensure you have a service cloud attribute set to TRUE on your user record]
+- Entitlements enabled [Ensure you have a service cloud attribute set to TRUE on your user record]
+- Email to Case enabled
+- Enhanced Notes enabled 
+- Enable Middle/Local Name [Setup -&gt; User Interface -&gt; User Interface -&gt; Enable Middle Names, Enable Local Names]
+Salesforce Sheild encryption is reccomended to protect PII information.
+***NOTE FOR TA/SA***
+If you are starting from a fresh/greenfield Salesfore instance. It is recommended that you perform this step [STEP 1] in Production so that future Sandboxes would include the changes. PLEASE USE YOUR OWN DISCRETION ON THIS STEP</t>
   </si>
 </sst>
 </file>
@@ -3008,10 +3007,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.3">
@@ -3019,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3033,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C640AF-74A4-4CD1-A0EA-8AC20A4C7D61}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -3064,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3072,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -3080,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
@@ -3088,7 +3087,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -3096,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
@@ -3104,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -3112,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -3120,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -3128,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3136,13 +3135,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
@@ -3150,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -3158,12 +3157,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
@@ -3207,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3231,54 +3230,54 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
         <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="AA55" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C56" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C57" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
         <v>41</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
@@ -3308,10 +3307,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="218.4" x14ac:dyDescent="0.3">
@@ -3319,15 +3318,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="343.2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3335,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78" x14ac:dyDescent="0.3">
@@ -3343,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
@@ -3351,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3367,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -3375,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3383,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,7 +3390,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3399,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -3407,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3415,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3423,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="78" x14ac:dyDescent="0.3">
@@ -3431,7 +3430,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3439,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
@@ -3447,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
@@ -3455,7 +3454,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3463,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3471,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3479,7 +3478,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3487,7 +3486,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3495,7 +3494,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3503,7 +3502,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3511,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3519,7 +3518,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -3527,7 +3526,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
@@ -3535,7 +3534,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3542,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3551,7 +3550,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3559,7 +3558,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
@@ -3567,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3575,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3583,7 +3582,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -3591,7 +3590,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3598,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -3607,7 +3606,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3614,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3623,7 +3622,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +3630,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3639,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3647,7 +3646,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3655,7 +3654,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3663,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3774,51 +3773,51 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -3831,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="18">
         <v>7</v>
@@ -3851,10 +3850,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3867,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="18">
         <v>8</v>
@@ -3887,10 +3886,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3903,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="18">
         <v>9</v>
@@ -3923,10 +3922,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -3939,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="18">
         <v>10</v>
@@ -3959,10 +3958,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3975,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="18">
         <v>11</v>
@@ -3995,10 +3994,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -4011,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="17">
         <v>11</v>
@@ -4031,10 +4030,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -4047,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="17">
         <v>12</v>
@@ -4067,10 +4066,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -4083,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="17">
         <v>13</v>
@@ -4103,10 +4102,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4119,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="17">
         <v>14</v>
@@ -4139,10 +4138,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -4155,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="17">
         <v>15</v>
@@ -4175,10 +4174,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4191,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="17">
         <v>2</v>
@@ -4211,10 +4210,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4227,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="17">
         <v>4</v>
@@ -4247,10 +4246,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4263,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="17">
         <v>7</v>
@@ -4283,10 +4282,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -4299,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="17">
         <v>6</v>
@@ -4319,10 +4318,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4335,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="17">
         <v>8</v>
@@ -4355,10 +4354,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -4371,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="17">
         <v>9</v>
@@ -4391,10 +4390,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -4407,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="18">
         <v>6</v>
@@ -4427,10 +4426,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4443,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="17">
         <v>10</v>
@@ -4463,10 +4462,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4479,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="17">
         <v>5</v>
@@ -4499,10 +4498,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4515,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="17">
         <v>1</v>
@@ -4535,10 +4534,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -4551,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -4571,10 +4570,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4587,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="18">
         <v>1</v>
@@ -4607,10 +4606,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -4623,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="18">
         <v>5</v>
@@ -4643,10 +4642,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4659,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J25" s="18">
         <v>4</v>
@@ -4679,10 +4678,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4695,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J26" s="18">
         <v>3</v>
@@ -4715,10 +4714,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4731,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="19">
         <v>1</v>
@@ -4751,10 +4750,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="19">
         <v>2</v>
@@ -4787,10 +4786,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4803,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="19">
         <v>3</v>
@@ -4854,823 +4853,823 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5698,10 +5697,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5709,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5717,10 +5716,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5728,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5736,7 +5735,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5744,12 +5743,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5760,9 +5759,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5937,39 +5939,51 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="465c61a4-780a-45c3-8749-8f573b0dc929"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d95b7030-fc85-4f91-9ea2-b53f63467854"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C78B82-C80C-437F-9C2A-7CE509899136}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C78B82-C80C-437F-9C2A-7CE509899136}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
+    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/CTT Package Installation Guide.xlsx
+++ b/Docs/CTT Package Installation Guide.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Contact_Tracer\GSA-CTT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpao\source\repos\CTT\NASAGitHub\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328327E2-2BC1-4BB4-8904-6C6B41A8827E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" firstSheet="1" activeTab="1" xr2:uid="{103CFAB5-460B-4A25-9CC4-DC8B7F021E37}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="799" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pre Deployment Steps OLD" sheetId="13" state="hidden" r:id="rId1"/>
@@ -27,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.ACN_Call_Flow_Screen__c'!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1823,7 +1822,7 @@
 - Email to Case enabled
 - Enhanced Notes enabled 
 - Enable Middle/Local Name [Setup -&gt; User Interface -&gt; User Interface -&gt; Enable Middle Names, Enable Local Names]
-Salesforce Sheild encryption is reccomended to protect PII information.
+Salesforce Shield encryption is reccomended to protect PII information.
 ***NOTE FOR TA/SA***
 If you are starting from a fresh/greenfield Salesfore instance. It is recommended that you perform this step [STEP 1] in Production so that future Sandboxes would include the changes. PLEASE USE YOUR OWN DISCRETION ON THIS STEP</t>
   </si>
@@ -1831,7 +1830,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2887,20 +2886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90496EB8-4A46-4D62-AB82-0F891BB9101E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="85.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="324" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2993,19 +2992,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D43C890-3F0B-4ACC-B273-123FECA48681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -3029,20 +3028,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C640AF-74A4-4CD1-A0EA-8AC20A4C7D61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="96.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="96.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -3138,13 +3137,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -3172,20 +3171,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD009B0-009A-A949-9184-9A4BA83F8296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="85.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -3216,24 +3215,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE9467D-CF09-4086-93CF-BFBA81457DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="68.88671875" customWidth="1"/>
+    <col min="27" max="27" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
@@ -3257,22 +3256,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="AA55" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C56" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C57" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>40</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
     </row>
   </sheetData>
@@ -3291,21 +3290,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881D1E5D-F47A-4F3D-8BF3-FCC5B886482C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A44" sqref="A42:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="90.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="90.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="156.109375" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="90.109375" style="30"/>
+    <col min="1" max="1" width="8.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="156.140625" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="90.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>21</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>23</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>24</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>26</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>28</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>29</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>35</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>36</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>37</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>38</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>39</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>40</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>41</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>42</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>44</v>
       </c>
@@ -3678,21 +3677,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C79311A-9D0E-4FB7-9949-D83B4356169D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -3743,32 +3742,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50A5D0-EADF-4FA1-B93B-4B6F8E340C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>55</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>58</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>60</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>62</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>66</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>73</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>78</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>79</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>81</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>83</v>
       </c>
@@ -4352,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>87</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>91</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>93</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>95</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>97</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>98</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>100</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>102</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>104</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>107</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>108</v>
       </c>
@@ -4821,7 +4820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N29" xr:uid="{3A2FC61F-7635-44D0-99C2-0ED868E3E69F}"/>
+  <autoFilter ref="A1:N29"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -4831,24 +4830,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26170CC-6B11-4432-8A66-BC4A1C45F26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="106" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>116</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>108</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>135</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>139</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>143</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>153</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>154</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>155</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>159</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>161</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>162</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>163</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>165</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>167</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>168</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>169</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>170</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>172</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>174</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>175</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>176</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>178</v>
       </c>
@@ -5682,20 +5681,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8624C44-BE68-4B61-9E2E-269836D36F09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>186</v>
       </c>
@@ -5759,12 +5758,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5939,15 +5935,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5972,18 +5980,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/CTT Package Installation Guide.xlsx
+++ b/Docs/CTT Package Installation Guide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="799" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="799" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pre Deployment Steps OLD" sheetId="13" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="240">
   <si>
     <t>Step #</t>
   </si>
@@ -1825,6 +1825,12 @@
 Salesforce Shield encryption is reccomended to protect PII information.
 ***NOTE FOR TA/SA***
 If you are starting from a fresh/greenfield Salesfore instance. It is recommended that you perform this step [STEP 1] in Production so that future Sandboxes would include the changes. PLEASE USE YOUR OWN DISCRETION ON THIS STEP</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>This is optional. As of 11/27/2020, the Health Cloud licenses are not in use in CTT.</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +3037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3172,35 +3178,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="85.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="C2" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5758,9 +5771,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5935,27 +5951,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5980,9 +5984,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F46E04-9716-47DF-BE4E-10DD5FD22D24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163BEE74-E426-4F2E-930B-3665AF3B22A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="44c172eb-110d-4902-bcaf-f6375353b947"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="566fb1d1-6d97-4bc6-86b4-e8923ec84cbf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>